--- a/temp/pages/StructureDefinition-ch-etoc-questionnaireresponse.xlsx
+++ b/temp/pages/StructureDefinition-ch-etoc-questionnaireresponse.xlsx
@@ -385,7 +385,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest)
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
 ServicePractitionerDepartmentCompanyPerformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Practitioner|PractitionerRole|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -616,7 +616,7 @@
     <t>QuestionnaireResponse.source</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2113,7 +2113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>107</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>42</v>
@@ -2221,7 +2221,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>115</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>42</v>
@@ -2329,7 +2329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>123</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>42</v>
@@ -2437,7 +2437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>130</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>42</v>
@@ -2547,7 +2547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>139</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>51</v>
@@ -2657,7 +2657,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>150</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
@@ -2767,7 +2767,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>160</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
@@ -2877,7 +2877,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>169</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
@@ -2987,7 +2987,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>179</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>42</v>
@@ -3097,7 +3097,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>189</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3207,7 +3207,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>197</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3639,7 +3639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>217</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
@@ -3747,7 +3747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>222</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
@@ -3857,7 +3857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>228</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -3965,7 +3965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>233</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>42</v>
@@ -4397,7 +4397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>241</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -4507,7 +4507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>251</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
@@ -4615,7 +4615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>255</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>42</v>
